--- a/pred_ohlcv/54/2019-10-25 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-25 GXC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D2" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F2" t="n">
-        <v>1111.3795</v>
+        <v>2.08768267</v>
       </c>
       <c r="G2" t="n">
-        <v>475.8333333333333</v>
+        <v>475.8</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>476</v>
       </c>
       <c r="C3" t="n">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D3" t="n">
+        <v>477</v>
+      </c>
+      <c r="E3" t="n">
         <v>476</v>
       </c>
-      <c r="E3" t="n">
-        <v>463</v>
-      </c>
       <c r="F3" t="n">
-        <v>1159.5258</v>
+        <v>1111.3795</v>
       </c>
       <c r="G3" t="n">
-        <v>475.65</v>
+        <v>475.8333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C4" t="n">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D4" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E4" t="n">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1159.5258</v>
       </c>
       <c r="G4" t="n">
-        <v>475.7333333333333</v>
+        <v>475.65</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C5" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D5" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E5" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F5" t="n">
-        <v>160.021</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>475.65</v>
+        <v>475.7333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C6" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D6" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F6" t="n">
-        <v>443.1404</v>
+        <v>160.021</v>
       </c>
       <c r="G6" t="n">
         <v>475.65</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="D7" t="n">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E7" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F7" t="n">
-        <v>333.4131</v>
+        <v>443.1404</v>
       </c>
       <c r="G7" t="n">
-        <v>475.4666666666666</v>
+        <v>475.65</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C8" t="n">
         <v>463</v>
       </c>
       <c r="D8" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E8" t="n">
         <v>463</v>
       </c>
       <c r="F8" t="n">
-        <v>172.3425</v>
+        <v>333.4131</v>
       </c>
       <c r="G8" t="n">
-        <v>475.2833333333334</v>
+        <v>475.4666666666666</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C9" t="n">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D9" t="n">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E9" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F9" t="n">
-        <v>160</v>
+        <v>172.3425</v>
       </c>
       <c r="G9" t="n">
-        <v>475.2</v>
+        <v>475.2833333333334</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>464</v>
       </c>
       <c r="C10" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D10" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E10" t="n">
         <v>464</v>
       </c>
       <c r="F10" t="n">
-        <v>335.5243</v>
+        <v>160</v>
       </c>
       <c r="G10" t="n">
-        <v>475.1333333333333</v>
+        <v>475.2</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C11" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D11" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E11" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>335.5243</v>
       </c>
       <c r="G11" t="n">
-        <v>475.0333333333334</v>
+        <v>475.1333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C12" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D12" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E12" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F12" t="n">
-        <v>103.4507</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>475.0666666666667</v>
+        <v>475.0333333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C13" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D13" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E13" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F13" t="n">
-        <v>35.1347</v>
+        <v>103.4507</v>
       </c>
       <c r="G13" t="n">
-        <v>475.0833333333333</v>
+        <v>475.0666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C14" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D14" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E14" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F14" t="n">
-        <v>145.8118</v>
+        <v>35.1347</v>
       </c>
       <c r="G14" t="n">
-        <v>474.9333333333333</v>
+        <v>475.0833333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C15" t="n">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D15" t="n">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E15" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F15" t="n">
-        <v>394.2051</v>
+        <v>145.8118</v>
       </c>
       <c r="G15" t="n">
-        <v>475</v>
+        <v>474.9333333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>464</v>
       </c>
       <c r="C16" t="n">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="D16" t="n">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="E16" t="n">
         <v>464</v>
       </c>
       <c r="F16" t="n">
-        <v>247.4701</v>
+        <v>394.2051</v>
       </c>
       <c r="G16" t="n">
-        <v>474.75</v>
+        <v>475</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D17" t="n">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="E17" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F17" t="n">
-        <v>303.3417</v>
+        <v>247.4701</v>
       </c>
       <c r="G17" t="n">
-        <v>474.55</v>
+        <v>474.75</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C18" t="n">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D18" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E18" t="n">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>303.3417</v>
       </c>
       <c r="G18" t="n">
-        <v>474.3833333333333</v>
+        <v>474.55</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C19" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D19" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E19" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="F19" t="n">
-        <v>2053.2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>474.2833333333334</v>
+        <v>474.3833333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>463</v>
       </c>
       <c r="C20" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D20" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E20" t="n">
         <v>463</v>
       </c>
       <c r="F20" t="n">
-        <v>9297.576999999999</v>
+        <v>2053.2</v>
       </c>
       <c r="G20" t="n">
-        <v>474.2</v>
+        <v>474.2833333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>463</v>
       </c>
       <c r="C21" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D21" t="n">
+        <v>471</v>
+      </c>
+      <c r="E21" t="n">
         <v>463</v>
       </c>
-      <c r="E21" t="n">
-        <v>462</v>
-      </c>
       <c r="F21" t="n">
-        <v>280</v>
+        <v>9297.576999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>473.9333333333333</v>
+        <v>474.2</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C22" t="n">
         <v>462</v>
       </c>
       <c r="D22" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E22" t="n">
         <v>462</v>
       </c>
       <c r="F22" t="n">
-        <v>745</v>
+        <v>280</v>
       </c>
       <c r="G22" t="n">
-        <v>473.75</v>
+        <v>473.9333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>462</v>
       </c>
       <c r="C23" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D23" t="n">
         <v>462</v>
       </c>
       <c r="E23" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>745</v>
       </c>
       <c r="G23" t="n">
-        <v>473.45</v>
+        <v>473.75</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C24" t="n">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D24" t="n">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E24" t="n">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F24" t="n">
-        <v>744.6808</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>473.3</v>
+        <v>473.45</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>470</v>
       </c>
       <c r="C25" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D25" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E25" t="n">
         <v>470</v>
       </c>
       <c r="F25" t="n">
-        <v>759.4642906</v>
+        <v>744.6808</v>
       </c>
       <c r="G25" t="n">
-        <v>473.2333333333333</v>
+        <v>473.3</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C26" t="n">
         <v>479</v>
@@ -1041,15 +1118,18 @@
         <v>479</v>
       </c>
       <c r="E26" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F26" t="n">
-        <v>71.84699999999999</v>
+        <v>759.4642906</v>
       </c>
       <c r="G26" t="n">
-        <v>473.1833333333333</v>
+        <v>473.2333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>479</v>
       </c>
       <c r="F27" t="n">
-        <v>30.3109</v>
+        <v>71.84699999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>473.25</v>
+        <v>473.1833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>479</v>
       </c>
       <c r="F28" t="n">
-        <v>90.93089999999999</v>
+        <v>30.3109</v>
       </c>
       <c r="G28" t="n">
-        <v>473.2</v>
+        <v>473.25</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>479</v>
       </c>
       <c r="F29" t="n">
-        <v>30.3109</v>
+        <v>90.93089999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>473.2666666666667</v>
+        <v>473.2</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>479</v>
       </c>
       <c r="F30" t="n">
-        <v>41.9226</v>
+        <v>30.3109</v>
       </c>
       <c r="G30" t="n">
-        <v>473.2166666666666</v>
+        <v>473.2666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>479</v>
       </c>
       <c r="F31" t="n">
-        <v>30.2483</v>
+        <v>41.9226</v>
       </c>
       <c r="G31" t="n">
-        <v>473.0666666666667</v>
+        <v>473.2166666666666</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>479</v>
       </c>
       <c r="F32" t="n">
-        <v>29.168</v>
+        <v>30.2483</v>
       </c>
       <c r="G32" t="n">
-        <v>472.95</v>
+        <v>473.0666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>479</v>
       </c>
       <c r="F33" t="n">
-        <v>9.722300000000001</v>
+        <v>29.168</v>
       </c>
       <c r="G33" t="n">
-        <v>472.8333333333333</v>
+        <v>472.95</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>479</v>
       </c>
       <c r="F34" t="n">
-        <v>22.168</v>
+        <v>9.722300000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>472.7166666666666</v>
+        <v>472.8333333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>479</v>
       </c>
       <c r="F35" t="n">
-        <v>3.6951</v>
+        <v>22.168</v>
       </c>
       <c r="G35" t="n">
-        <v>472.95</v>
+        <v>472.7166666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C36" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D36" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E36" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F36" t="n">
-        <v>242.6767</v>
+        <v>3.6951</v>
       </c>
       <c r="G36" t="n">
-        <v>472.65</v>
+        <v>472.95</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C37" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D37" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E37" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F37" t="n">
-        <v>218.409</v>
+        <v>242.6767</v>
       </c>
       <c r="G37" t="n">
-        <v>472.7666666666667</v>
+        <v>472.65</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C38" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D38" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E38" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F38" t="n">
-        <v>35.5687</v>
+        <v>218.409</v>
       </c>
       <c r="G38" t="n">
-        <v>472.95</v>
+        <v>472.7666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,22 +1489,25 @@
         <v>479</v>
       </c>
       <c r="C39" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D39" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E39" t="n">
         <v>479</v>
       </c>
       <c r="F39" t="n">
-        <v>48.38482673</v>
+        <v>35.5687</v>
       </c>
       <c r="G39" t="n">
-        <v>473.2166666666666</v>
+        <v>472.95</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1396,25 +1515,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C40" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D40" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E40" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F40" t="n">
-        <v>20.0329</v>
+        <v>48.38482673</v>
       </c>
       <c r="G40" t="n">
-        <v>473.5</v>
+        <v>473.2166666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1434,12 +1556,15 @@
         <v>484</v>
       </c>
       <c r="F41" t="n">
-        <v>6.6776</v>
+        <v>20.0329</v>
       </c>
       <c r="G41" t="n">
-        <v>473.7666666666667</v>
+        <v>473.5</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="C42" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D42" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="E42" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="F42" t="n">
-        <v>72</v>
+        <v>6.6776</v>
       </c>
       <c r="G42" t="n">
-        <v>473.5</v>
+        <v>473.7666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,25 +1602,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C43" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D43" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E43" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F43" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G43" t="n">
-        <v>473.5666666666667</v>
+        <v>473.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C44" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D44" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E44" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F44" t="n">
-        <v>293.8459</v>
+        <v>53</v>
       </c>
       <c r="G44" t="n">
-        <v>473.6166666666667</v>
+        <v>473.5666666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>473</v>
       </c>
       <c r="C45" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D45" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E45" t="n">
         <v>473</v>
       </c>
       <c r="F45" t="n">
-        <v>114.8408</v>
+        <v>293.8459</v>
       </c>
       <c r="G45" t="n">
-        <v>473.95</v>
+        <v>473.6166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C46" t="n">
         <v>483</v>
@@ -1561,15 +1698,18 @@
         <v>483</v>
       </c>
       <c r="E46" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F46" t="n">
-        <v>5.2971</v>
+        <v>114.8408</v>
       </c>
       <c r="G46" t="n">
-        <v>474.0833333333333</v>
+        <v>473.95</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D47" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E47" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F47" t="n">
-        <v>157.7771</v>
+        <v>5.2971</v>
       </c>
       <c r="G47" t="n">
-        <v>474.25</v>
+        <v>474.0833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C48" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D48" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E48" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F48" t="n">
-        <v>138.6999</v>
+        <v>157.7771</v>
       </c>
       <c r="G48" t="n">
-        <v>474.15</v>
+        <v>474.25</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C49" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D49" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E49" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F49" t="n">
-        <v>115.8299</v>
+        <v>138.6999</v>
       </c>
       <c r="G49" t="n">
-        <v>474.0833333333333</v>
+        <v>474.15</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C50" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D50" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E50" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F50" t="n">
-        <v>3.536</v>
+        <v>115.8299</v>
       </c>
       <c r="G50" t="n">
-        <v>474.1666666666667</v>
+        <v>474.0833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>484</v>
       </c>
       <c r="F51" t="n">
-        <v>57.9204</v>
+        <v>3.536</v>
       </c>
       <c r="G51" t="n">
-        <v>474.3833333333333</v>
+        <v>474.1666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C52" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D52" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E52" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F52" t="n">
-        <v>58.0413</v>
+        <v>57.9204</v>
       </c>
       <c r="G52" t="n">
-        <v>474.4666666666666</v>
+        <v>474.3833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C53" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D53" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E53" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F53" t="n">
-        <v>11.3838</v>
+        <v>58.0413</v>
       </c>
       <c r="G53" t="n">
-        <v>474.4333333333333</v>
+        <v>474.4666666666666</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C54" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D54" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E54" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F54" t="n">
-        <v>42.8935</v>
+        <v>11.3838</v>
       </c>
       <c r="G54" t="n">
-        <v>474.35</v>
+        <v>474.4333333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C55" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D55" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E55" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F55" t="n">
-        <v>214.2911</v>
+        <v>42.8935</v>
       </c>
       <c r="G55" t="n">
-        <v>474.2666666666667</v>
+        <v>474.35</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>474</v>
       </c>
       <c r="F56" t="n">
-        <v>142.146</v>
+        <v>214.2911</v>
       </c>
       <c r="G56" t="n">
-        <v>474.3166666666667</v>
+        <v>474.2666666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C57" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D57" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E57" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F57" t="n">
-        <v>73.998</v>
+        <v>142.146</v>
       </c>
       <c r="G57" t="n">
-        <v>474.4166666666667</v>
+        <v>474.3166666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>473</v>
       </c>
       <c r="C58" t="n">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D58" t="n">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E58" t="n">
         <v>473</v>
       </c>
       <c r="F58" t="n">
-        <v>120</v>
+        <v>73.998</v>
       </c>
       <c r="G58" t="n">
-        <v>474.5</v>
+        <v>474.4166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C59" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D59" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="E59" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F59" t="n">
-        <v>21.7151</v>
+        <v>120</v>
       </c>
       <c r="G59" t="n">
-        <v>474.4666666666666</v>
+        <v>474.5</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>470</v>
       </c>
       <c r="C60" t="n">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D60" t="n">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E60" t="n">
         <v>470</v>
       </c>
       <c r="F60" t="n">
-        <v>220.9403</v>
+        <v>21.7151</v>
       </c>
       <c r="G60" t="n">
         <v>474.4666666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>470</v>
       </c>
       <c r="C61" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D61" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E61" t="n">
         <v>470</v>
       </c>
       <c r="F61" t="n">
-        <v>69.6242</v>
+        <v>220.9403</v>
       </c>
       <c r="G61" t="n">
-        <v>474.3166666666667</v>
+        <v>474.4666666666666</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>470</v>
       </c>
       <c r="C62" t="n">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D62" t="n">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E62" t="n">
         <v>470</v>
       </c>
       <c r="F62" t="n">
-        <v>228.7696</v>
+        <v>69.6242</v>
       </c>
       <c r="G62" t="n">
-        <v>474.3333333333333</v>
+        <v>474.3166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C63" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D63" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E63" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F63" t="n">
-        <v>240</v>
+        <v>228.7696</v>
       </c>
       <c r="G63" t="n">
-        <v>474.6</v>
+        <v>474.3333333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C64" t="n">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D64" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E64" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="G64" t="n">
-        <v>474.7</v>
+        <v>474.6</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C65" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D65" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E65" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F65" t="n">
-        <v>141.2314</v>
+        <v>80</v>
       </c>
       <c r="G65" t="n">
-        <v>474.95</v>
+        <v>474.7</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>471</v>
       </c>
       <c r="C66" t="n">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D66" t="n">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E66" t="n">
         <v>471</v>
       </c>
       <c r="F66" t="n">
-        <v>90.7959</v>
+        <v>141.2314</v>
       </c>
       <c r="G66" t="n">
-        <v>475.2166666666666</v>
+        <v>474.95</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C67" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D67" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E67" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F67" t="n">
-        <v>183.078</v>
+        <v>90.7959</v>
       </c>
       <c r="G67" t="n">
-        <v>475.6166666666667</v>
+        <v>475.2166666666666</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C68" t="n">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D68" t="n">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E68" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F68" t="n">
-        <v>143.4545</v>
+        <v>183.078</v>
       </c>
       <c r="G68" t="n">
-        <v>475.8</v>
+        <v>475.6166666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C69" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D69" t="n">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E69" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F69" t="n">
-        <v>328.4233</v>
+        <v>143.4545</v>
       </c>
       <c r="G69" t="n">
-        <v>476.0833333333333</v>
+        <v>475.8</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C70" t="n">
+        <v>486</v>
+      </c>
+      <c r="D70" t="n">
         <v>487</v>
       </c>
-      <c r="D70" t="n">
-        <v>488</v>
-      </c>
       <c r="E70" t="n">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F70" t="n">
-        <v>11.8524</v>
+        <v>328.4233</v>
       </c>
       <c r="G70" t="n">
-        <v>476.3666666666667</v>
+        <v>476.0833333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C71" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D71" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E71" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F71" t="n">
-        <v>33.9041</v>
+        <v>11.8524</v>
       </c>
       <c r="G71" t="n">
-        <v>476.6333333333333</v>
+        <v>476.3666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2237,15 +2452,18 @@
         <v>485</v>
       </c>
       <c r="E72" t="n">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F72" t="n">
-        <v>930.2537</v>
+        <v>33.9041</v>
       </c>
       <c r="G72" t="n">
-        <v>476.7833333333334</v>
+        <v>476.6333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C73" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D73" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E73" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F73" t="n">
-        <v>119.0126</v>
+        <v>930.2537</v>
       </c>
       <c r="G73" t="n">
-        <v>476.75</v>
+        <v>476.7833333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C74" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D74" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E74" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F74" t="n">
-        <v>23.3914</v>
+        <v>119.0126</v>
       </c>
       <c r="G74" t="n">
-        <v>476.9666666666666</v>
+        <v>476.75</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C75" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D75" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E75" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F75" t="n">
-        <v>61.1862</v>
+        <v>23.3914</v>
       </c>
       <c r="G75" t="n">
-        <v>477.1833333333333</v>
+        <v>476.9666666666666</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="C76" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D76" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E76" t="n">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="F76" t="n">
-        <v>178.6402</v>
+        <v>61.1862</v>
       </c>
       <c r="G76" t="n">
-        <v>477.55</v>
+        <v>477.1833333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C77" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D77" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="E77" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F77" t="n">
-        <v>200.5493</v>
+        <v>178.6402</v>
       </c>
       <c r="G77" t="n">
-        <v>477.6666666666667</v>
+        <v>477.55</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C78" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D78" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E78" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F78" t="n">
-        <v>71.77930000000001</v>
+        <v>200.5493</v>
       </c>
       <c r="G78" t="n">
-        <v>477.8333333333333</v>
+        <v>477.6666666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C79" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D79" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E79" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F79" t="n">
-        <v>274.6294</v>
+        <v>71.77930000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>478.05</v>
+        <v>477.8333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>472</v>
+      </c>
+      <c r="C80" t="n">
         <v>483</v>
       </c>
-      <c r="C80" t="n">
-        <v>488</v>
-      </c>
       <c r="D80" t="n">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E80" t="n">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F80" t="n">
-        <v>15.95470696</v>
+        <v>274.6294</v>
       </c>
       <c r="G80" t="n">
-        <v>478.3333333333333</v>
+        <v>478.05</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C81" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D81" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E81" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="F81" t="n">
-        <v>80</v>
+        <v>15.95470696</v>
       </c>
       <c r="G81" t="n">
-        <v>478.7333333333333</v>
+        <v>478.3333333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C82" t="n">
         <v>486</v>
@@ -2497,15 +2742,18 @@
         <v>486</v>
       </c>
       <c r="E82" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="F82" t="n">
-        <v>7.823</v>
+        <v>80</v>
       </c>
       <c r="G82" t="n">
-        <v>479.1333333333333</v>
+        <v>478.7333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C83" t="n">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D83" t="n">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="E83" t="n">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F83" t="n">
-        <v>427.8027</v>
+        <v>7.823</v>
       </c>
       <c r="G83" t="n">
-        <v>479.3666666666667</v>
+        <v>479.1333333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C84" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D84" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E84" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F84" t="n">
-        <v>29.1521</v>
+        <v>427.8027</v>
       </c>
       <c r="G84" t="n">
-        <v>479.5833333333333</v>
+        <v>479.3666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>483</v>
       </c>
       <c r="F85" t="n">
-        <v>21.8638</v>
+        <v>29.1521</v>
       </c>
       <c r="G85" t="n">
-        <v>479.65</v>
+        <v>479.5833333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>483</v>
       </c>
       <c r="F86" t="n">
-        <v>63.6686</v>
+        <v>21.8638</v>
       </c>
       <c r="G86" t="n">
-        <v>479.7166666666666</v>
+        <v>479.65</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C87" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D87" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E87" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F87" t="n">
-        <v>17.4024</v>
+        <v>63.6686</v>
       </c>
       <c r="G87" t="n">
-        <v>479.75</v>
+        <v>479.7166666666666</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C88" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E88" t="n">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F88" t="n">
-        <v>228</v>
+        <v>17.4024</v>
       </c>
       <c r="G88" t="n">
-        <v>479.7166666666666</v>
+        <v>479.75</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C89" t="n">
         <v>477</v>
@@ -2679,15 +2945,18 @@
         <v>477</v>
       </c>
       <c r="E89" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F89" t="n">
-        <v>77.5291</v>
+        <v>228</v>
       </c>
       <c r="G89" t="n">
-        <v>479.6833333333333</v>
+        <v>479.7166666666666</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C90" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D90" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E90" t="n">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F90" t="n">
-        <v>186.8376</v>
+        <v>77.5291</v>
       </c>
       <c r="G90" t="n">
-        <v>479.5833333333333</v>
+        <v>479.6833333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,7 +2994,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C91" t="n">
         <v>473</v>
@@ -2731,15 +3003,18 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F91" t="n">
-        <v>77.6759</v>
+        <v>186.8376</v>
       </c>
       <c r="G91" t="n">
-        <v>479.4833333333333</v>
+        <v>479.5833333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C92" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D92" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E92" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F92" t="n">
-        <v>80</v>
+        <v>77.6759</v>
       </c>
       <c r="G92" t="n">
-        <v>479.35</v>
+        <v>479.4833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C93" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D93" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E93" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F93" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G93" t="n">
-        <v>479.1333333333333</v>
+        <v>479.35</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C94" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D94" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E94" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G94" t="n">
-        <v>478.85</v>
+        <v>479.1333333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>462</v>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>478.5666666666667</v>
+        <v>478.85</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C96" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D96" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E96" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F96" t="n">
-        <v>6.1146</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>478.6</v>
+        <v>478.5666666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C97" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D97" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E97" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F97" t="n">
-        <v>56</v>
+        <v>6.1146</v>
       </c>
       <c r="G97" t="n">
-        <v>478.3333333333333</v>
+        <v>478.6</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>462</v>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G98" t="n">
-        <v>478.05</v>
+        <v>478.3333333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>462</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>477.7</v>
+        <v>478.05</v>
       </c>
       <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C100" t="n">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D100" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E100" t="n">
         <v>462</v>
       </c>
       <c r="F100" t="n">
-        <v>624.6678000000001</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>477.4666666666666</v>
+        <v>477.7</v>
       </c>
       <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>471</v>
       </c>
       <c r="C101" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D101" t="n">
         <v>471</v>
       </c>
       <c r="E101" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F101" t="n">
-        <v>13.3811</v>
+        <v>624.6678000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>477.25</v>
+        <v>477.4666666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>471</v>
       </c>
       <c r="F102" t="n">
-        <v>14.3897</v>
+        <v>13.3811</v>
       </c>
       <c r="G102" t="n">
-        <v>477.2666666666667</v>
+        <v>477.25</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>471</v>
       </c>
       <c r="F103" t="n">
-        <v>62</v>
+        <v>14.3897</v>
       </c>
       <c r="G103" t="n">
         <v>477.2666666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>471</v>
       </c>
       <c r="C104" t="n">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="D104" t="n">
         <v>471</v>
       </c>
       <c r="E104" t="n">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="F104" t="n">
-        <v>197.49</v>
+        <v>62</v>
       </c>
       <c r="G104" t="n">
-        <v>476.9833333333333</v>
+        <v>477.2666666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C105" t="n">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="D105" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E105" t="n">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F105" t="n">
-        <v>60.6071</v>
+        <v>197.49</v>
       </c>
       <c r="G105" t="n">
-        <v>476.85</v>
+        <v>476.9833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,7 +3429,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C106" t="n">
         <v>475</v>
@@ -3121,15 +3438,18 @@
         <v>475</v>
       </c>
       <c r="E106" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F106" t="n">
-        <v>20.1747</v>
+        <v>60.6071</v>
       </c>
       <c r="G106" t="n">
-        <v>476.7166666666666</v>
+        <v>476.85</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>475</v>
       </c>
       <c r="F107" t="n">
-        <v>34.4968</v>
+        <v>20.1747</v>
       </c>
       <c r="G107" t="n">
         <v>476.7166666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>475</v>
       </c>
       <c r="F108" t="n">
-        <v>57.3514</v>
+        <v>34.4968</v>
       </c>
       <c r="G108" t="n">
-        <v>476.7666666666667</v>
+        <v>476.7166666666666</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>475</v>
       </c>
       <c r="C109" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D109" t="n">
         <v>475</v>
       </c>
       <c r="E109" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F109" t="n">
-        <v>124.4394</v>
+        <v>57.3514</v>
       </c>
       <c r="G109" t="n">
-        <v>476.7333333333333</v>
+        <v>476.7666666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C110" t="n">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D110" t="n">
         <v>475</v>
       </c>
       <c r="E110" t="n">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F110" t="n">
-        <v>172.4583</v>
+        <v>124.4394</v>
       </c>
       <c r="G110" t="n">
-        <v>476.5833333333333</v>
+        <v>476.7333333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C111" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D111" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E111" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F111" t="n">
-        <v>20.3598</v>
+        <v>172.4583</v>
       </c>
       <c r="G111" t="n">
-        <v>476.4833333333333</v>
+        <v>476.5833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>478</v>
       </c>
       <c r="F112" t="n">
-        <v>36.1568</v>
+        <v>20.3598</v>
       </c>
       <c r="G112" t="n">
-        <v>476.4</v>
+        <v>476.4833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>478</v>
       </c>
       <c r="F113" t="n">
-        <v>41.6463</v>
+        <v>36.1568</v>
       </c>
       <c r="G113" t="n">
-        <v>476.25</v>
+        <v>476.4</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>478</v>
       </c>
       <c r="F114" t="n">
-        <v>13.8828</v>
+        <v>41.6463</v>
       </c>
       <c r="G114" t="n">
-        <v>476.3</v>
+        <v>476.25</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>478</v>
       </c>
       <c r="F115" t="n">
-        <v>37.4831</v>
+        <v>13.8828</v>
       </c>
       <c r="G115" t="n">
-        <v>476.3666666666667</v>
+        <v>476.3</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>478</v>
       </c>
       <c r="F116" t="n">
-        <v>23.2845</v>
+        <v>37.4831</v>
       </c>
       <c r="G116" t="n">
-        <v>476.4333333333333</v>
+        <v>476.3666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>478</v>
       </c>
       <c r="C117" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D117" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E117" t="n">
         <v>478</v>
       </c>
       <c r="F117" t="n">
-        <v>729.4125</v>
+        <v>23.2845</v>
       </c>
       <c r="G117" t="n">
-        <v>476.55</v>
+        <v>476.4333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>478</v>
+      </c>
+      <c r="C118" t="n">
         <v>480</v>
-      </c>
-      <c r="C118" t="n">
-        <v>467</v>
       </c>
       <c r="D118" t="n">
         <v>480</v>
       </c>
       <c r="E118" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="F118" t="n">
-        <v>1594.202</v>
+        <v>729.4125</v>
       </c>
       <c r="G118" t="n">
-        <v>476.3333333333333</v>
+        <v>476.55</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C119" t="n">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D119" t="n">
         <v>480</v>
       </c>
       <c r="E119" t="n">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F119" t="n">
-        <v>441.4507</v>
+        <v>1594.202</v>
       </c>
       <c r="G119" t="n">
-        <v>476.5</v>
+        <v>476.3333333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C120" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D120" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E120" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F120" t="n">
-        <v>209.572</v>
+        <v>441.4507</v>
       </c>
       <c r="G120" t="n">
-        <v>476.65</v>
+        <v>476.5</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C121" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D121" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E121" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F121" t="n">
-        <v>15.4038</v>
+        <v>209.572</v>
       </c>
       <c r="G121" t="n">
-        <v>476.9666666666666</v>
+        <v>476.65</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C122" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D122" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E122" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F122" t="n">
-        <v>39.6262</v>
+        <v>15.4038</v>
       </c>
       <c r="G122" t="n">
-        <v>477.1</v>
+        <v>476.9666666666666</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C123" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D123" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E123" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="F123" t="n">
-        <v>62</v>
+        <v>39.6262</v>
       </c>
       <c r="G123" t="n">
-        <v>476.9833333333333</v>
+        <v>477.1</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>472</v>
       </c>
       <c r="F124" t="n">
-        <v>164.5461</v>
+        <v>62</v>
       </c>
       <c r="G124" t="n">
-        <v>476.7666666666667</v>
+        <v>476.9833333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C125" t="n">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D125" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E125" t="n">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F125" t="n">
-        <v>972.6074</v>
+        <v>164.5461</v>
       </c>
       <c r="G125" t="n">
-        <v>476.7166666666666</v>
+        <v>476.7666666666667</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C126" t="n">
         <v>481</v>
       </c>
       <c r="D126" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E126" t="n">
         <v>481</v>
       </c>
       <c r="F126" t="n">
-        <v>4.8959</v>
+        <v>972.6074</v>
       </c>
       <c r="G126" t="n">
-        <v>476.5666666666667</v>
+        <v>476.7166666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C127" t="n">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D127" t="n">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E127" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F127" t="n">
-        <v>22.926</v>
+        <v>4.8959</v>
       </c>
       <c r="G127" t="n">
         <v>476.5666666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C128" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D128" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E128" t="n">
         <v>483</v>
       </c>
       <c r="F128" t="n">
-        <v>8.027699999999999</v>
+        <v>22.926</v>
       </c>
       <c r="G128" t="n">
-        <v>476.7166666666666</v>
+        <v>476.5666666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C129" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D129" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E129" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="F129" t="n">
-        <v>157.4464</v>
+        <v>8.027699999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>476.4833333333333</v>
+        <v>476.7166666666666</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C130" t="n">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D130" t="n">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="E130" t="n">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F130" t="n">
-        <v>96.1399</v>
+        <v>157.4464</v>
       </c>
       <c r="G130" t="n">
-        <v>476.45</v>
+        <v>476.4833333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>487</v>
+      </c>
+      <c r="C131" t="n">
         <v>485</v>
       </c>
-      <c r="C131" t="n">
-        <v>484</v>
-      </c>
       <c r="D131" t="n">
+        <v>487</v>
+      </c>
+      <c r="E131" t="n">
         <v>485</v>
       </c>
-      <c r="E131" t="n">
-        <v>483</v>
-      </c>
       <c r="F131" t="n">
-        <v>894.9924</v>
+        <v>96.1399</v>
       </c>
       <c r="G131" t="n">
-        <v>476.4333333333333</v>
+        <v>476.45</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C132" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D132" t="n">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E132" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F132" t="n">
-        <v>187.4589</v>
+        <v>894.9924</v>
       </c>
       <c r="G132" t="n">
-        <v>476.4833333333333</v>
+        <v>476.4333333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3823,15 +4221,18 @@
         <v>488</v>
       </c>
       <c r="E133" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F133" t="n">
-        <v>48.0807</v>
+        <v>187.4589</v>
       </c>
       <c r="G133" t="n">
-        <v>476.7333333333333</v>
+        <v>476.4833333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C134" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D134" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E134" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F134" t="n">
-        <v>198.3368</v>
+        <v>48.0807</v>
       </c>
       <c r="G134" t="n">
-        <v>476.9166666666667</v>
+        <v>476.7333333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C135" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D135" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E135" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F135" t="n">
-        <v>292.4976</v>
+        <v>198.3368</v>
       </c>
       <c r="G135" t="n">
-        <v>476.9</v>
+        <v>476.9166666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C136" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D136" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E136" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F136" t="n">
-        <v>90</v>
+        <v>292.4976</v>
       </c>
       <c r="G136" t="n">
-        <v>476.8666666666667</v>
+        <v>476.9</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C137" t="n">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D137" t="n">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E137" t="n">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="F137" t="n">
-        <v>129.7581</v>
+        <v>90</v>
       </c>
       <c r="G137" t="n">
-        <v>476.9</v>
+        <v>476.8666666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>474</v>
       </c>
       <c r="F138" t="n">
-        <v>165.2702</v>
+        <v>129.7581</v>
       </c>
       <c r="G138" t="n">
-        <v>476.7666666666667</v>
+        <v>476.9</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C139" t="n">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D139" t="n">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E139" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F139" t="n">
-        <v>420.0066</v>
+        <v>165.2702</v>
       </c>
       <c r="G139" t="n">
-        <v>476.85</v>
+        <v>476.7666666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,7 +4415,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C140" t="n">
         <v>488</v>
@@ -4005,15 +4424,18 @@
         <v>488</v>
       </c>
       <c r="E140" t="n">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F140" t="n">
-        <v>327.756</v>
+        <v>420.0066</v>
       </c>
       <c r="G140" t="n">
         <v>476.85</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C141" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D141" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E141" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F141" t="n">
-        <v>336.81</v>
+        <v>327.756</v>
       </c>
       <c r="G141" t="n">
-        <v>476.9</v>
+        <v>476.85</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C142" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D142" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E142" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F142" t="n">
-        <v>347.4253</v>
+        <v>336.81</v>
       </c>
       <c r="G142" t="n">
-        <v>476.9166666666667</v>
+        <v>476.9</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C143" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D143" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E143" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F143" t="n">
-        <v>163.1859</v>
+        <v>347.4253</v>
       </c>
       <c r="G143" t="n">
-        <v>477</v>
+        <v>476.9166666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C144" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D144" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E144" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F144" t="n">
-        <v>283.2978</v>
+        <v>163.1859</v>
       </c>
       <c r="G144" t="n">
-        <v>476.9666666666666</v>
+        <v>477</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>488</v>
       </c>
       <c r="C145" t="n">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D145" t="n">
         <v>488</v>
       </c>
       <c r="E145" t="n">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F145" t="n">
-        <v>16.1792</v>
+        <v>283.2978</v>
       </c>
       <c r="G145" t="n">
-        <v>477.05</v>
+        <v>476.9666666666666</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C146" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D146" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E146" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F146" t="n">
-        <v>84.76479999999999</v>
+        <v>16.1792</v>
       </c>
       <c r="G146" t="n">
-        <v>477.15</v>
+        <v>477.05</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,21 +4621,24 @@
         <v>489</v>
       </c>
       <c r="C147" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D147" t="n">
         <v>489</v>
       </c>
       <c r="E147" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F147" t="n">
-        <v>105.6344</v>
+        <v>84.76479999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>477.2666666666667</v>
+        <v>477.15</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>488</v>
       </c>
       <c r="F148" t="n">
-        <v>26.3905</v>
+        <v>105.6344</v>
       </c>
       <c r="G148" t="n">
-        <v>477.45</v>
+        <v>477.2666666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C149" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D149" t="n">
         <v>489</v>
       </c>
       <c r="E149" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F149" t="n">
-        <v>198.4789</v>
+        <v>26.3905</v>
       </c>
       <c r="G149" t="n">
-        <v>477.65</v>
+        <v>477.45</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C150" t="n">
         <v>489</v>
@@ -4265,15 +4714,18 @@
         <v>489</v>
       </c>
       <c r="E150" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F150" t="n">
-        <v>35.5766</v>
+        <v>198.4789</v>
       </c>
       <c r="G150" t="n">
-        <v>477.9166666666667</v>
+        <v>477.65</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>489</v>
       </c>
       <c r="F151" t="n">
-        <v>35.5756</v>
+        <v>35.5766</v>
       </c>
       <c r="G151" t="n">
-        <v>478.1833333333333</v>
+        <v>477.9166666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>489</v>
       </c>
       <c r="F152" t="n">
-        <v>124.1972</v>
+        <v>35.5756</v>
       </c>
       <c r="G152" t="n">
-        <v>478.4833333333333</v>
+        <v>478.1833333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>489</v>
       </c>
       <c r="F153" t="n">
-        <v>8.8711</v>
+        <v>124.1972</v>
       </c>
       <c r="G153" t="n">
-        <v>478.8666666666667</v>
+        <v>478.4833333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,12 +4833,15 @@
         <v>489</v>
       </c>
       <c r="F154" t="n">
-        <v>61.4365</v>
+        <v>8.8711</v>
       </c>
       <c r="G154" t="n">
-        <v>479.3166666666667</v>
+        <v>478.8666666666667</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>489</v>
       </c>
       <c r="F155" t="n">
-        <v>10.2392</v>
+        <v>61.4365</v>
       </c>
       <c r="G155" t="n">
-        <v>479.7666666666667</v>
+        <v>479.3166666666667</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>489</v>
       </c>
       <c r="F156" t="n">
-        <v>5.1196</v>
+        <v>10.2392</v>
       </c>
       <c r="G156" t="n">
-        <v>480.0666666666667</v>
+        <v>479.7666666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>489</v>
       </c>
       <c r="F157" t="n">
-        <v>2.5603</v>
+        <v>5.1196</v>
       </c>
       <c r="G157" t="n">
-        <v>480.5166666666667</v>
+        <v>480.0666666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4479,9 +4952,12 @@
         <v>2.5603</v>
       </c>
       <c r="G158" t="n">
-        <v>480.9666666666666</v>
+        <v>480.5166666666667</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>489</v>
       </c>
       <c r="F159" t="n">
-        <v>82.27719999999999</v>
+        <v>2.5603</v>
       </c>
       <c r="G159" t="n">
-        <v>481.4166666666667</v>
+        <v>480.9666666666666</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>489</v>
       </c>
       <c r="F160" t="n">
-        <v>37.3812</v>
+        <v>82.27719999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>481.7333333333333</v>
+        <v>481.4166666666667</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>489</v>
       </c>
       <c r="F161" t="n">
-        <v>5.3404</v>
+        <v>37.3812</v>
       </c>
       <c r="G161" t="n">
-        <v>482.0333333333334</v>
+        <v>481.7333333333333</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C162" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D162" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E162" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F162" t="n">
-        <v>136.0235</v>
+        <v>5.3404</v>
       </c>
       <c r="G162" t="n">
-        <v>482.2166666666666</v>
+        <v>482.0333333333334</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C163" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D163" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E163" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>136.0235</v>
       </c>
       <c r="G163" t="n">
-        <v>482.5166666666667</v>
+        <v>482.2166666666666</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>489</v>
       </c>
       <c r="F164" t="n">
-        <v>21.9426</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>483.0666666666667</v>
+        <v>482.5166666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>489</v>
       </c>
       <c r="F165" t="n">
-        <v>3.1349</v>
+        <v>21.9426</v>
       </c>
       <c r="G165" t="n">
-        <v>483.3</v>
+        <v>483.0666666666667</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C166" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="D166" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E166" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="F166" t="n">
-        <v>121.7995</v>
+        <v>3.1349</v>
       </c>
       <c r="G166" t="n">
         <v>483.3</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C167" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D167" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E167" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F167" t="n">
-        <v>96.5305</v>
+        <v>121.7995</v>
       </c>
       <c r="G167" t="n">
-        <v>483.35</v>
+        <v>483.3</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C168" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D168" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E168" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F168" t="n">
-        <v>99.20650000000001</v>
+        <v>96.5305</v>
       </c>
       <c r="G168" t="n">
         <v>483.35</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,544 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C169" t="n">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D169" t="n">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="E169" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F169" t="n">
-        <v>80</v>
+        <v>99.20650000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>483.6166666666667</v>
+        <v>483.35</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>477</v>
-      </c>
-      <c r="C170" t="n">
-        <v>476</v>
-      </c>
-      <c r="D170" t="n">
-        <v>477</v>
-      </c>
-      <c r="E170" t="n">
-        <v>476</v>
-      </c>
-      <c r="F170" t="n">
-        <v>120.323</v>
-      </c>
-      <c r="G170" t="n">
-        <v>483.6333333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>473</v>
-      </c>
-      <c r="C171" t="n">
-        <v>489</v>
-      </c>
-      <c r="D171" t="n">
-        <v>489</v>
-      </c>
-      <c r="E171" t="n">
-        <v>473</v>
-      </c>
-      <c r="F171" t="n">
-        <v>321.199</v>
-      </c>
-      <c r="G171" t="n">
-        <v>483.8166666666667</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>475</v>
-      </c>
-      <c r="C172" t="n">
-        <v>475</v>
-      </c>
-      <c r="D172" t="n">
-        <v>475</v>
-      </c>
-      <c r="E172" t="n">
-        <v>475</v>
-      </c>
-      <c r="F172" t="n">
-        <v>53.7088</v>
-      </c>
-      <c r="G172" t="n">
-        <v>483.7666666666667</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>485</v>
-      </c>
-      <c r="C173" t="n">
-        <v>485</v>
-      </c>
-      <c r="D173" t="n">
-        <v>485</v>
-      </c>
-      <c r="E173" t="n">
-        <v>485</v>
-      </c>
-      <c r="F173" t="n">
-        <v>16.0782</v>
-      </c>
-      <c r="G173" t="n">
-        <v>483.8833333333333</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>483</v>
-      </c>
-      <c r="C174" t="n">
-        <v>483</v>
-      </c>
-      <c r="D174" t="n">
-        <v>483</v>
-      </c>
-      <c r="E174" t="n">
-        <v>483</v>
-      </c>
-      <c r="F174" t="n">
-        <v>60</v>
-      </c>
-      <c r="G174" t="n">
-        <v>483.9666666666666</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>489</v>
-      </c>
-      <c r="C175" t="n">
-        <v>489</v>
-      </c>
-      <c r="D175" t="n">
-        <v>489</v>
-      </c>
-      <c r="E175" t="n">
-        <v>489</v>
-      </c>
-      <c r="F175" t="n">
-        <v>57.6891</v>
-      </c>
-      <c r="G175" t="n">
-        <v>484.15</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>489</v>
-      </c>
-      <c r="C176" t="n">
-        <v>489</v>
-      </c>
-      <c r="D176" t="n">
-        <v>489</v>
-      </c>
-      <c r="E176" t="n">
-        <v>489</v>
-      </c>
-      <c r="F176" t="n">
-        <v>11.3803</v>
-      </c>
-      <c r="G176" t="n">
-        <v>484.3333333333333</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>474</v>
-      </c>
-      <c r="C177" t="n">
-        <v>475</v>
-      </c>
-      <c r="D177" t="n">
-        <v>489</v>
-      </c>
-      <c r="E177" t="n">
-        <v>473</v>
-      </c>
-      <c r="F177" t="n">
-        <v>228.1198</v>
-      </c>
-      <c r="G177" t="n">
-        <v>484.25</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>475</v>
-      </c>
-      <c r="C178" t="n">
-        <v>484</v>
-      </c>
-      <c r="D178" t="n">
-        <v>484</v>
-      </c>
-      <c r="E178" t="n">
-        <v>475</v>
-      </c>
-      <c r="F178" t="n">
-        <v>87.143</v>
-      </c>
-      <c r="G178" t="n">
-        <v>484.5333333333334</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>485</v>
-      </c>
-      <c r="C179" t="n">
-        <v>486</v>
-      </c>
-      <c r="D179" t="n">
-        <v>487</v>
-      </c>
-      <c r="E179" t="n">
-        <v>485</v>
-      </c>
-      <c r="F179" t="n">
-        <v>80.5912</v>
-      </c>
-      <c r="G179" t="n">
-        <v>484.6333333333333</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>476</v>
-      </c>
-      <c r="C180" t="n">
-        <v>486</v>
-      </c>
-      <c r="D180" t="n">
-        <v>486</v>
-      </c>
-      <c r="E180" t="n">
-        <v>476</v>
-      </c>
-      <c r="F180" t="n">
-        <v>110.5081</v>
-      </c>
-      <c r="G180" t="n">
-        <v>484.6666666666667</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>486</v>
-      </c>
-      <c r="C181" t="n">
-        <v>484</v>
-      </c>
-      <c r="D181" t="n">
-        <v>486</v>
-      </c>
-      <c r="E181" t="n">
-        <v>484</v>
-      </c>
-      <c r="F181" t="n">
-        <v>15.6453</v>
-      </c>
-      <c r="G181" t="n">
-        <v>484.5833333333333</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>489</v>
-      </c>
-      <c r="C182" t="n">
-        <v>489</v>
-      </c>
-      <c r="D182" t="n">
-        <v>489</v>
-      </c>
-      <c r="E182" t="n">
-        <v>489</v>
-      </c>
-      <c r="F182" t="n">
-        <v>136.8567</v>
-      </c>
-      <c r="G182" t="n">
-        <v>484.65</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>489</v>
-      </c>
-      <c r="C183" t="n">
-        <v>489</v>
-      </c>
-      <c r="D183" t="n">
-        <v>489</v>
-      </c>
-      <c r="E183" t="n">
-        <v>489</v>
-      </c>
-      <c r="F183" t="n">
-        <v>272.9046</v>
-      </c>
-      <c r="G183" t="n">
-        <v>484.9333333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>489</v>
-      </c>
-      <c r="C184" t="n">
-        <v>489</v>
-      </c>
-      <c r="D184" t="n">
-        <v>489</v>
-      </c>
-      <c r="E184" t="n">
-        <v>489</v>
-      </c>
-      <c r="F184" t="n">
-        <v>226.9837</v>
-      </c>
-      <c r="G184" t="n">
-        <v>485.2166666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>489</v>
-      </c>
-      <c r="C185" t="n">
-        <v>489</v>
-      </c>
-      <c r="D185" t="n">
-        <v>489</v>
-      </c>
-      <c r="E185" t="n">
-        <v>489</v>
-      </c>
-      <c r="F185" t="n">
-        <v>108.013</v>
-      </c>
-      <c r="G185" t="n">
-        <v>485.35</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>489</v>
-      </c>
-      <c r="C186" t="n">
-        <v>489</v>
-      </c>
-      <c r="D186" t="n">
-        <v>489</v>
-      </c>
-      <c r="E186" t="n">
-        <v>489</v>
-      </c>
-      <c r="F186" t="n">
-        <v>72.932</v>
-      </c>
-      <c r="G186" t="n">
-        <v>485.4833333333333</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>489</v>
-      </c>
-      <c r="C187" t="n">
-        <v>489</v>
-      </c>
-      <c r="D187" t="n">
-        <v>489</v>
-      </c>
-      <c r="E187" t="n">
-        <v>489</v>
-      </c>
-      <c r="F187" t="n">
-        <v>43.0265</v>
-      </c>
-      <c r="G187" t="n">
-        <v>485.5166666666667</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>489</v>
-      </c>
-      <c r="C188" t="n">
-        <v>489</v>
-      </c>
-      <c r="D188" t="n">
-        <v>489</v>
-      </c>
-      <c r="E188" t="n">
-        <v>489</v>
-      </c>
-      <c r="F188" t="n">
-        <v>43.0275</v>
-      </c>
-      <c r="G188" t="n">
-        <v>485.6166666666667</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>489</v>
-      </c>
-      <c r="C189" t="n">
-        <v>489</v>
-      </c>
-      <c r="D189" t="n">
-        <v>489</v>
-      </c>
-      <c r="E189" t="n">
-        <v>489</v>
-      </c>
-      <c r="F189" t="n">
-        <v>107.6584</v>
-      </c>
-      <c r="G189" t="n">
-        <v>485.9</v>
-      </c>
-      <c r="H189" t="n">
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
